--- a/диплом/Тест Холла.xlsx
+++ b/диплом/Тест Холла.xlsx
@@ -4612,7 +4612,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="x-none" altLang="ru-RU"/>
-              <a:t>Технический отдел</a:t>
+              <a:t>Юридический отдел</a:t>
             </a:r>
             <a:endParaRPr lang="x-none" altLang="ru-RU"/>
           </a:p>
@@ -15449,7 +15449,7 @@
   <sheetPr/>
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A135" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
